--- a/product_launch.xlsx
+++ b/product_launch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A43E43-5E66-4BDD-A5CF-9CB78390D475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED21EC36-5A2C-434B-83E0-5EEC48A3F477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="18720" windowHeight="11650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Price</t>
   </si>
@@ -325,313 +325,7 @@
     <t>P100</t>
   </si>
   <si>
-    <t>Health Monitor</t>
-  </si>
-  <si>
-    <t>Fitness Tracker</t>
-  </si>
-  <si>
-    <t>Smartwatch</t>
-  </si>
-  <si>
-    <t>2020-03-18</t>
-  </si>
-  <si>
-    <t>2023-04-25</t>
-  </si>
-  <si>
-    <t>2023-06-01</t>
-  </si>
-  <si>
-    <t>2020-06-07</t>
-  </si>
-  <si>
-    <t>2020-03-14</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
-    <t>2020-05-24</t>
-  </si>
-  <si>
-    <t>2020-08-25</t>
-  </si>
-  <si>
-    <t>2021-09-06</t>
-  </si>
-  <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2023-04-30</t>
-  </si>
-  <si>
-    <t>2023-08-17</t>
-  </si>
-  <si>
-    <t>2024-10-30</t>
-  </si>
-  <si>
-    <t>2023-08-07</t>
-  </si>
-  <si>
-    <t>2020-02-29</t>
-  </si>
-  <si>
-    <t>2024-01-10</t>
-  </si>
-  <si>
-    <t>2023-12-31</t>
-  </si>
-  <si>
-    <t>2023-02-10</t>
-  </si>
-  <si>
-    <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2021-05-17</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>2022-03-12</t>
-  </si>
-  <si>
-    <t>2022-08-15</t>
-  </si>
-  <si>
-    <t>2023-05-24</t>
-  </si>
-  <si>
-    <t>2024-11-26</t>
-  </si>
-  <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>2023-04-15</t>
-  </si>
-  <si>
-    <t>2023-09-24</t>
-  </si>
-  <si>
-    <t>2024-10-04</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2024-03-01</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>2023-05-06</t>
-  </si>
-  <si>
-    <t>2021-03-09</t>
-  </si>
-  <si>
-    <t>2021-05-24</t>
-  </si>
-  <si>
-    <t>2021-04-22</t>
-  </si>
-  <si>
-    <t>2021-07-27</t>
-  </si>
-  <si>
-    <t>2024-08-21</t>
-  </si>
-  <si>
-    <t>2024-08-31</t>
-  </si>
-  <si>
-    <t>2020-05-06</t>
-  </si>
-  <si>
-    <t>2023-10-18</t>
-  </si>
-  <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>2023-11-03</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>2022-06-13</t>
-  </si>
-  <si>
-    <t>2024-09-15</t>
-  </si>
-  <si>
-    <t>2020-07-12</t>
-  </si>
-  <si>
-    <t>2024-10-12</t>
-  </si>
-  <si>
-    <t>2021-10-16</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>2021-11-14</t>
-  </si>
-  <si>
-    <t>2022-08-12</t>
-  </si>
-  <si>
-    <t>2022-07-07</t>
-  </si>
-  <si>
-    <t>2021-04-29</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>2020-04-06</t>
-  </si>
-  <si>
-    <t>2022-08-28</t>
-  </si>
-  <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>2024-10-06</t>
-  </si>
-  <si>
-    <t>2022-06-28</t>
-  </si>
-  <si>
-    <t>2022-10-03</t>
-  </si>
-  <si>
-    <t>2023-11-20</t>
-  </si>
-  <si>
-    <t>2021-08-24</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
-    <t>2021-05-23</t>
-  </si>
-  <si>
-    <t>2021-12-22</t>
-  </si>
-  <si>
-    <t>2024-01-04</t>
-  </si>
-  <si>
-    <t>2022-01-04</t>
-  </si>
-  <si>
-    <t>2022-08-30</t>
-  </si>
-  <si>
-    <t>2021-10-25</t>
-  </si>
-  <si>
-    <t>2020-05-07</t>
-  </si>
-  <si>
-    <t>2020-04-03</t>
-  </si>
-  <si>
-    <t>2022-01-18</t>
-  </si>
-  <si>
-    <t>2023-06-28</t>
-  </si>
-  <si>
-    <t>2022-12-15</t>
-  </si>
-  <si>
-    <t>2024-11-02</t>
-  </si>
-  <si>
-    <t>2020-12-23</t>
-  </si>
-  <si>
-    <t>2022-11-25</t>
-  </si>
-  <si>
-    <t>2022-10-20</t>
-  </si>
-  <si>
-    <t>2023-05-27</t>
-  </si>
-  <si>
-    <t>2022-04-01</t>
-  </si>
-  <si>
-    <t>2022-12-13</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>2024-12-07</t>
-  </si>
-  <si>
-    <t>2020-12-18</t>
-  </si>
-  <si>
-    <t>2023-01-11</t>
-  </si>
-  <si>
-    <t>2022-07-05</t>
-  </si>
-  <si>
-    <t>2023-05-16</t>
-  </si>
-  <si>
-    <t>2020-06-30</t>
-  </si>
-  <si>
-    <t>2021-03-27</t>
-  </si>
-  <si>
-    <t>2021-10-13</t>
-  </si>
-  <si>
-    <t>2022-01-25</t>
-  </si>
-  <si>
-    <t>2022-06-03</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-02-12</t>
-  </si>
-  <si>
-    <t>2022-10-22</t>
-  </si>
-  <si>
-    <t>2020-04-18</t>
-  </si>
-  <si>
     <t>Product_ID</t>
-  </si>
-  <si>
-    <t>Product_Type</t>
-  </si>
-  <si>
-    <t>Launch_Date</t>
   </si>
   <si>
     <t>Marketing_Spend</t>
@@ -1002,3255 +696,2647 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
+      <c r="B2">
+        <v>173.32</v>
+      </c>
+      <c r="C2">
+        <v>50691.75</v>
       </c>
       <c r="D2">
-        <v>173.32</v>
+        <v>3046</v>
       </c>
       <c r="E2">
-        <v>50691.75</v>
+        <v>971</v>
       </c>
       <c r="F2">
-        <v>3046</v>
+        <v>450</v>
       </c>
       <c r="G2">
-        <v>971</v>
+        <v>3.14</v>
       </c>
       <c r="H2">
-        <v>450</v>
-      </c>
-      <c r="I2">
-        <v>3.14</v>
-      </c>
-      <c r="J2">
         <v>78.3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
-        <v>105</v>
+      <c r="B3">
+        <v>498.46</v>
+      </c>
+      <c r="C3">
+        <v>16465.150000000001</v>
       </c>
       <c r="D3">
-        <v>498.46</v>
+        <v>896</v>
       </c>
       <c r="E3">
-        <v>16465.150000000001</v>
+        <v>2737</v>
       </c>
       <c r="F3">
-        <v>896</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>2737</v>
+        <v>3.07</v>
       </c>
       <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>3.07</v>
-      </c>
-      <c r="J3">
         <v>49.97</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" t="s">
-        <v>106</v>
+      <c r="B4">
+        <v>427.79</v>
+      </c>
+      <c r="C4">
+        <v>87094.52</v>
       </c>
       <c r="D4">
-        <v>427.79</v>
+        <v>1084</v>
       </c>
       <c r="E4">
-        <v>87094.52</v>
+        <v>872</v>
       </c>
       <c r="F4">
-        <v>1084</v>
+        <v>1329</v>
       </c>
       <c r="G4">
-        <v>872</v>
+        <v>3.61</v>
       </c>
       <c r="H4">
-        <v>1329</v>
-      </c>
-      <c r="I4">
-        <v>3.61</v>
-      </c>
-      <c r="J4">
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
+      <c r="B5">
+        <v>471.74</v>
+      </c>
+      <c r="C5">
+        <v>64549.03</v>
       </c>
       <c r="D5">
-        <v>471.74</v>
+        <v>2833</v>
       </c>
       <c r="E5">
-        <v>64549.03</v>
+        <v>1150</v>
       </c>
       <c r="F5">
-        <v>2833</v>
+        <v>164</v>
       </c>
       <c r="G5">
-        <v>1150</v>
+        <v>2.62</v>
       </c>
       <c r="H5">
-        <v>164</v>
-      </c>
-      <c r="I5">
-        <v>2.62</v>
-      </c>
-      <c r="J5">
         <v>7.65</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" t="s">
-        <v>108</v>
+      <c r="B6">
+        <v>405.3</v>
+      </c>
+      <c r="C6">
+        <v>62703.31</v>
       </c>
       <c r="D6">
-        <v>405.3</v>
+        <v>6001</v>
       </c>
       <c r="E6">
-        <v>62703.31</v>
+        <v>1928</v>
       </c>
       <c r="F6">
-        <v>6001</v>
+        <v>1689</v>
       </c>
       <c r="G6">
-        <v>1928</v>
+        <v>3.53</v>
       </c>
       <c r="H6">
-        <v>1689</v>
-      </c>
-      <c r="I6">
-        <v>3.53</v>
-      </c>
-      <c r="J6">
         <v>12.47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
+      <c r="B7">
+        <v>453.37</v>
+      </c>
+      <c r="C7">
+        <v>11697.84</v>
       </c>
       <c r="D7">
-        <v>453.37</v>
+        <v>1272</v>
       </c>
       <c r="E7">
-        <v>11697.84</v>
+        <v>2442</v>
       </c>
       <c r="F7">
-        <v>1272</v>
+        <v>1019</v>
       </c>
       <c r="G7">
-        <v>2442</v>
+        <v>3.97</v>
       </c>
       <c r="H7">
-        <v>1019</v>
-      </c>
-      <c r="I7">
-        <v>3.97</v>
-      </c>
-      <c r="J7">
         <v>47.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
+      <c r="B8">
+        <v>105.55</v>
+      </c>
+      <c r="C8">
+        <v>34487.17</v>
       </c>
       <c r="D8">
-        <v>105.55</v>
+        <v>5981</v>
       </c>
       <c r="E8">
-        <v>34487.17</v>
+        <v>3321</v>
       </c>
       <c r="F8">
-        <v>5981</v>
+        <v>515</v>
       </c>
       <c r="G8">
-        <v>3321</v>
+        <v>3.15</v>
       </c>
       <c r="H8">
-        <v>515</v>
-      </c>
-      <c r="I8">
-        <v>3.15</v>
-      </c>
-      <c r="J8">
         <v>20.37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>111</v>
+      <c r="B9">
+        <v>361.94</v>
+      </c>
+      <c r="C9">
+        <v>98925.61</v>
       </c>
       <c r="D9">
-        <v>361.94</v>
+        <v>3874</v>
       </c>
       <c r="E9">
-        <v>98925.61</v>
+        <v>2700</v>
       </c>
       <c r="F9">
-        <v>3874</v>
+        <v>336</v>
       </c>
       <c r="G9">
-        <v>2700</v>
+        <v>3.84</v>
       </c>
       <c r="H9">
-        <v>336</v>
-      </c>
-      <c r="I9">
-        <v>3.84</v>
-      </c>
-      <c r="J9">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
+      <c r="B10">
+        <v>324.44</v>
+      </c>
+      <c r="C10">
+        <v>11120.5</v>
       </c>
       <c r="D10">
-        <v>324.44</v>
+        <v>7836</v>
       </c>
       <c r="E10">
-        <v>11120.5</v>
+        <v>1707</v>
       </c>
       <c r="F10">
-        <v>7836</v>
+        <v>1118</v>
       </c>
       <c r="G10">
-        <v>1707</v>
+        <v>4.97</v>
       </c>
       <c r="H10">
-        <v>1118</v>
-      </c>
-      <c r="I10">
-        <v>4.97</v>
-      </c>
-      <c r="J10">
         <v>99.14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
+      <c r="B11">
+        <v>232.29</v>
+      </c>
+      <c r="C11">
+        <v>36773.07</v>
       </c>
       <c r="D11">
-        <v>232.29</v>
+        <v>1393</v>
       </c>
       <c r="E11">
-        <v>36773.07</v>
+        <v>2261</v>
       </c>
       <c r="F11">
-        <v>1393</v>
+        <v>1152</v>
       </c>
       <c r="G11">
-        <v>2261</v>
+        <v>3.97</v>
       </c>
       <c r="H11">
-        <v>1152</v>
-      </c>
-      <c r="I11">
-        <v>3.97</v>
-      </c>
-      <c r="J11">
         <v>39.42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
+      <c r="B12">
+        <v>456.05</v>
+      </c>
+      <c r="C12">
+        <v>17069.330000000002</v>
       </c>
       <c r="D12">
-        <v>456.05</v>
+        <v>8825</v>
       </c>
       <c r="E12">
-        <v>17069.330000000002</v>
+        <v>1277</v>
       </c>
       <c r="F12">
-        <v>8825</v>
+        <v>1768</v>
       </c>
       <c r="G12">
-        <v>1277</v>
+        <v>3.02</v>
       </c>
       <c r="H12">
-        <v>1768</v>
-      </c>
-      <c r="I12">
-        <v>3.02</v>
-      </c>
-      <c r="J12">
         <v>18.739999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
+      <c r="B13">
+        <v>113.65</v>
+      </c>
+      <c r="C13">
+        <v>19866.830000000002</v>
       </c>
       <c r="D13">
-        <v>113.65</v>
+        <v>6812</v>
       </c>
       <c r="E13">
-        <v>19866.830000000002</v>
+        <v>722</v>
       </c>
       <c r="F13">
-        <v>6812</v>
+        <v>1695</v>
       </c>
       <c r="G13">
-        <v>722</v>
+        <v>2.11</v>
       </c>
       <c r="H13">
-        <v>1695</v>
-      </c>
-      <c r="I13">
-        <v>2.11</v>
-      </c>
-      <c r="J13">
         <v>82.99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>116</v>
+      <c r="B14">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="C14">
+        <v>22840.67</v>
       </c>
       <c r="D14">
-        <v>266.89999999999998</v>
+        <v>802</v>
       </c>
       <c r="E14">
-        <v>22840.67</v>
+        <v>4361</v>
       </c>
       <c r="F14">
-        <v>802</v>
+        <v>377</v>
       </c>
       <c r="G14">
-        <v>4361</v>
+        <v>2.6</v>
       </c>
       <c r="H14">
-        <v>377</v>
-      </c>
-      <c r="I14">
-        <v>2.6</v>
-      </c>
-      <c r="J14">
         <v>34.97</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" t="s">
-        <v>117</v>
+      <c r="B15">
+        <v>243.49</v>
+      </c>
+      <c r="C15">
+        <v>16553.88</v>
       </c>
       <c r="D15">
-        <v>243.49</v>
+        <v>5713</v>
       </c>
       <c r="E15">
-        <v>16553.88</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>5713</v>
+        <v>309</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>1.41</v>
       </c>
       <c r="H15">
-        <v>309</v>
-      </c>
-      <c r="I15">
-        <v>1.41</v>
-      </c>
-      <c r="J15">
         <v>50.53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
+      <c r="B16">
+        <v>380.99</v>
+      </c>
+      <c r="C16">
+        <v>93047.66</v>
       </c>
       <c r="D16">
-        <v>380.99</v>
+        <v>6981</v>
       </c>
       <c r="E16">
-        <v>93047.66</v>
+        <v>1608</v>
       </c>
       <c r="F16">
-        <v>6981</v>
+        <v>1824</v>
       </c>
       <c r="G16">
-        <v>1608</v>
+        <v>2.72</v>
       </c>
       <c r="H16">
-        <v>1824</v>
-      </c>
-      <c r="I16">
-        <v>2.72</v>
-      </c>
-      <c r="J16">
         <v>73.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
+      <c r="B17">
+        <v>379</v>
+      </c>
+      <c r="C17">
+        <v>9664.44</v>
       </c>
       <c r="D17">
-        <v>379</v>
+        <v>1545</v>
       </c>
       <c r="E17">
-        <v>9664.44</v>
+        <v>1937</v>
       </c>
       <c r="F17">
-        <v>1545</v>
+        <v>768</v>
       </c>
       <c r="G17">
-        <v>1937</v>
+        <v>4.66</v>
       </c>
       <c r="H17">
-        <v>768</v>
-      </c>
-      <c r="I17">
-        <v>4.66</v>
-      </c>
-      <c r="J17">
         <v>27.26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" t="s">
-        <v>120</v>
+      <c r="B18">
+        <v>300.49</v>
+      </c>
+      <c r="C18">
+        <v>53183.3</v>
       </c>
       <c r="D18">
-        <v>300.49</v>
+        <v>2878</v>
       </c>
       <c r="E18">
-        <v>53183.3</v>
+        <v>985</v>
       </c>
       <c r="F18">
-        <v>2878</v>
+        <v>1082</v>
       </c>
       <c r="G18">
-        <v>985</v>
+        <v>3.96</v>
       </c>
       <c r="H18">
-        <v>1082</v>
-      </c>
-      <c r="I18">
-        <v>3.96</v>
-      </c>
-      <c r="J18">
         <v>75.540000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
+      <c r="B19">
+        <v>239.37</v>
+      </c>
+      <c r="C19">
+        <v>12303.94</v>
       </c>
       <c r="D19">
-        <v>239.37</v>
+        <v>2891</v>
       </c>
       <c r="E19">
-        <v>12303.94</v>
+        <v>3469</v>
       </c>
       <c r="F19">
-        <v>2891</v>
+        <v>157</v>
       </c>
       <c r="G19">
-        <v>3469</v>
+        <v>3.42</v>
       </c>
       <c r="H19">
-        <v>157</v>
-      </c>
-      <c r="I19">
-        <v>3.42</v>
-      </c>
-      <c r="J19">
         <v>13.97</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
+      <c r="B20">
+        <v>238.75</v>
+      </c>
+      <c r="C20">
+        <v>70765.19</v>
       </c>
       <c r="D20">
-        <v>238.75</v>
+        <v>3653</v>
       </c>
       <c r="E20">
-        <v>70765.19</v>
+        <v>1399</v>
       </c>
       <c r="F20">
-        <v>3653</v>
+        <v>1634</v>
       </c>
       <c r="G20">
-        <v>1399</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H20">
-        <v>1634</v>
-      </c>
-      <c r="I20">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="J20">
         <v>94.74</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
+      <c r="B21">
+        <v>198.03</v>
+      </c>
+      <c r="C21">
+        <v>56751.38</v>
       </c>
       <c r="D21">
-        <v>198.03</v>
+        <v>9058</v>
       </c>
       <c r="E21">
-        <v>56751.38</v>
+        <v>2157</v>
       </c>
       <c r="F21">
-        <v>9058</v>
+        <v>349</v>
       </c>
       <c r="G21">
-        <v>2157</v>
+        <v>4.79</v>
       </c>
       <c r="H21">
-        <v>349</v>
-      </c>
-      <c r="I21">
-        <v>4.79</v>
-      </c>
-      <c r="J21">
         <v>97.53</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>124</v>
+      <c r="B22">
+        <v>413.52</v>
+      </c>
+      <c r="C22">
+        <v>10523.23</v>
       </c>
       <c r="D22">
-        <v>413.52</v>
+        <v>8117</v>
       </c>
       <c r="E22">
-        <v>10523.23</v>
+        <v>492</v>
       </c>
       <c r="F22">
-        <v>8117</v>
+        <v>930</v>
       </c>
       <c r="G22">
-        <v>492</v>
+        <v>1.87</v>
       </c>
       <c r="H22">
-        <v>930</v>
-      </c>
-      <c r="I22">
-        <v>1.87</v>
-      </c>
-      <c r="J22">
         <v>36.43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" t="s">
-        <v>125</v>
+      <c r="B23">
+        <v>173.98</v>
+      </c>
+      <c r="C23">
+        <v>46514.91</v>
       </c>
       <c r="D23">
-        <v>173.98</v>
+        <v>6909</v>
       </c>
       <c r="E23">
-        <v>46514.91</v>
+        <v>185</v>
       </c>
       <c r="F23">
-        <v>6909</v>
+        <v>1479</v>
       </c>
       <c r="G23">
-        <v>185</v>
+        <v>2.63</v>
       </c>
       <c r="H23">
-        <v>1479</v>
-      </c>
-      <c r="I23">
-        <v>2.63</v>
-      </c>
-      <c r="J23">
         <v>43.17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" t="s">
-        <v>126</v>
+      <c r="B24">
+        <v>407.92</v>
+      </c>
+      <c r="C24">
+        <v>45043.03</v>
       </c>
       <c r="D24">
-        <v>407.92</v>
+        <v>109</v>
       </c>
       <c r="E24">
-        <v>45043.03</v>
+        <v>3713</v>
       </c>
       <c r="F24">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>3713</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H24">
-        <v>36</v>
-      </c>
-      <c r="I24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J24">
         <v>71.86</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>127</v>
+      <c r="B25">
+        <v>384.21</v>
+      </c>
+      <c r="C25">
+        <v>24369.39</v>
       </c>
       <c r="D25">
-        <v>384.21</v>
+        <v>6893</v>
       </c>
       <c r="E25">
-        <v>24369.39</v>
+        <v>3007</v>
       </c>
       <c r="F25">
-        <v>6893</v>
+        <v>925</v>
       </c>
       <c r="G25">
-        <v>3007</v>
+        <v>1.52</v>
       </c>
       <c r="H25">
-        <v>925</v>
-      </c>
-      <c r="I25">
-        <v>1.52</v>
-      </c>
-      <c r="J25">
         <v>73.59</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
+      <c r="B26">
+        <v>467.36</v>
+      </c>
+      <c r="C26">
+        <v>90226.52</v>
       </c>
       <c r="D26">
-        <v>467.36</v>
+        <v>3737</v>
       </c>
       <c r="E26">
-        <v>90226.52</v>
+        <v>3917</v>
       </c>
       <c r="F26">
-        <v>3737</v>
+        <v>768</v>
       </c>
       <c r="G26">
-        <v>3917</v>
+        <v>1.22</v>
       </c>
       <c r="H26">
-        <v>768</v>
-      </c>
-      <c r="I26">
-        <v>1.22</v>
-      </c>
-      <c r="J26">
         <v>10.45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>129</v>
+      <c r="B27">
+        <v>496.2</v>
+      </c>
+      <c r="C27">
+        <v>91557.2</v>
       </c>
       <c r="D27">
-        <v>496.2</v>
+        <v>8591</v>
       </c>
       <c r="E27">
-        <v>91557.2</v>
+        <v>2726</v>
       </c>
       <c r="F27">
-        <v>8591</v>
+        <v>1983</v>
       </c>
       <c r="G27">
-        <v>2726</v>
+        <v>2.64</v>
       </c>
       <c r="H27">
-        <v>1983</v>
-      </c>
-      <c r="I27">
-        <v>2.64</v>
-      </c>
-      <c r="J27">
         <v>81.88</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
+      <c r="B28">
+        <v>180.21</v>
+      </c>
+      <c r="C28">
+        <v>5737.28</v>
       </c>
       <c r="D28">
-        <v>180.21</v>
+        <v>4693</v>
       </c>
       <c r="E28">
-        <v>5737.28</v>
+        <v>2852</v>
       </c>
       <c r="F28">
-        <v>4693</v>
+        <v>752</v>
       </c>
       <c r="G28">
-        <v>2852</v>
+        <v>3.54</v>
       </c>
       <c r="H28">
-        <v>752</v>
-      </c>
-      <c r="I28">
-        <v>3.54</v>
-      </c>
-      <c r="J28">
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" t="s">
-        <v>131</v>
+      <c r="B29">
+        <v>238.57</v>
+      </c>
+      <c r="C29">
+        <v>21849.72</v>
       </c>
       <c r="D29">
-        <v>238.57</v>
+        <v>6525</v>
       </c>
       <c r="E29">
-        <v>21849.72</v>
+        <v>1644</v>
       </c>
       <c r="F29">
-        <v>6525</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <v>1644</v>
+        <v>1.26</v>
       </c>
       <c r="H29">
-        <v>200</v>
-      </c>
-      <c r="I29">
-        <v>1.26</v>
-      </c>
-      <c r="J29">
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>132</v>
+      <c r="B30">
+        <v>197.79</v>
+      </c>
+      <c r="C30">
+        <v>3350.91</v>
       </c>
       <c r="D30">
-        <v>197.79</v>
+        <v>3011</v>
       </c>
       <c r="E30">
-        <v>3350.91</v>
+        <v>3715</v>
       </c>
       <c r="F30">
-        <v>3011</v>
+        <v>882</v>
       </c>
       <c r="G30">
-        <v>3715</v>
+        <v>3.91</v>
       </c>
       <c r="H30">
-        <v>882</v>
-      </c>
-      <c r="I30">
-        <v>3.91</v>
-      </c>
-      <c r="J30">
         <v>24.52</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>133</v>
+      <c r="B31">
+        <v>330.19</v>
+      </c>
+      <c r="C31">
+        <v>92293.98</v>
       </c>
       <c r="D31">
-        <v>330.19</v>
+        <v>5141</v>
       </c>
       <c r="E31">
-        <v>92293.98</v>
+        <v>4063</v>
       </c>
       <c r="F31">
-        <v>5141</v>
+        <v>1987</v>
       </c>
       <c r="G31">
-        <v>4063</v>
+        <v>4.74</v>
       </c>
       <c r="H31">
-        <v>1987</v>
-      </c>
-      <c r="I31">
-        <v>4.74</v>
-      </c>
-      <c r="J31">
         <v>40.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
+      <c r="B32">
+        <v>312.23</v>
+      </c>
+      <c r="C32">
+        <v>83809.84</v>
       </c>
       <c r="D32">
-        <v>312.23</v>
+        <v>3894</v>
       </c>
       <c r="E32">
-        <v>83809.84</v>
+        <v>4727</v>
       </c>
       <c r="F32">
-        <v>3894</v>
+        <v>350</v>
       </c>
       <c r="G32">
-        <v>4727</v>
+        <v>2.81</v>
       </c>
       <c r="H32">
-        <v>350</v>
-      </c>
-      <c r="I32">
-        <v>2.81</v>
-      </c>
-      <c r="J32">
         <v>82.96</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>135</v>
+      <c r="B33">
+        <v>494.72</v>
+      </c>
+      <c r="C33">
+        <v>59587.34</v>
       </c>
       <c r="D33">
-        <v>494.72</v>
+        <v>7468</v>
       </c>
       <c r="E33">
-        <v>59587.34</v>
+        <v>4556</v>
       </c>
       <c r="F33">
-        <v>7468</v>
+        <v>55</v>
       </c>
       <c r="G33">
-        <v>4556</v>
+        <v>3.15</v>
       </c>
       <c r="H33">
-        <v>55</v>
-      </c>
-      <c r="I33">
-        <v>3.15</v>
-      </c>
-      <c r="J33">
         <v>18.02</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>136</v>
+      <c r="B34">
+        <v>277.77</v>
+      </c>
+      <c r="C34">
+        <v>92388.67</v>
       </c>
       <c r="D34">
-        <v>277.77</v>
+        <v>4539</v>
       </c>
       <c r="E34">
-        <v>92388.67</v>
+        <v>462</v>
       </c>
       <c r="F34">
-        <v>4539</v>
+        <v>986</v>
       </c>
       <c r="G34">
-        <v>462</v>
+        <v>4.76</v>
       </c>
       <c r="H34">
-        <v>986</v>
-      </c>
-      <c r="I34">
-        <v>4.76</v>
-      </c>
-      <c r="J34">
         <v>8.32</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>137</v>
+      <c r="B35">
+        <v>442.87</v>
+      </c>
+      <c r="C35">
+        <v>4288.17</v>
       </c>
       <c r="D35">
-        <v>442.87</v>
+        <v>2909</v>
       </c>
       <c r="E35">
-        <v>4288.17</v>
+        <v>3017</v>
       </c>
       <c r="F35">
-        <v>2909</v>
+        <v>739</v>
       </c>
       <c r="G35">
-        <v>3017</v>
+        <v>3.61</v>
       </c>
       <c r="H35">
-        <v>739</v>
-      </c>
-      <c r="I35">
-        <v>3.61</v>
-      </c>
-      <c r="J35">
         <v>41.35</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" t="s">
-        <v>138</v>
+      <c r="B36">
+        <v>172.2</v>
+      </c>
+      <c r="C36">
+        <v>74714.55</v>
       </c>
       <c r="D36">
-        <v>172.2</v>
+        <v>9977</v>
       </c>
       <c r="E36">
-        <v>74714.55</v>
+        <v>3941</v>
       </c>
       <c r="F36">
-        <v>9977</v>
+        <v>1276</v>
       </c>
       <c r="G36">
-        <v>3941</v>
+        <v>4.47</v>
       </c>
       <c r="H36">
-        <v>1276</v>
-      </c>
-      <c r="I36">
-        <v>4.47</v>
-      </c>
-      <c r="J36">
         <v>16.3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
+      <c r="B37">
+        <v>236.66</v>
+      </c>
+      <c r="C37">
+        <v>42755.040000000001</v>
       </c>
       <c r="D37">
-        <v>236.66</v>
+        <v>317</v>
       </c>
       <c r="E37">
-        <v>42755.040000000001</v>
+        <v>4860</v>
       </c>
       <c r="F37">
-        <v>317</v>
+        <v>1331</v>
       </c>
       <c r="G37">
-        <v>4860</v>
+        <v>3.54</v>
       </c>
       <c r="H37">
-        <v>1331</v>
-      </c>
-      <c r="I37">
-        <v>3.54</v>
-      </c>
-      <c r="J37">
         <v>81.67</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
+      <c r="B38">
+        <v>291.20999999999998</v>
+      </c>
+      <c r="C38">
+        <v>51213.57</v>
       </c>
       <c r="D38">
-        <v>291.20999999999998</v>
+        <v>4338</v>
       </c>
       <c r="E38">
-        <v>51213.57</v>
+        <v>1212</v>
       </c>
       <c r="F38">
-        <v>4338</v>
+        <v>244</v>
       </c>
       <c r="G38">
-        <v>1212</v>
+        <v>4.75</v>
       </c>
       <c r="H38">
-        <v>244</v>
-      </c>
-      <c r="I38">
-        <v>4.75</v>
-      </c>
-      <c r="J38">
         <v>24.36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" t="s">
-        <v>141</v>
+      <c r="B39">
+        <v>87.85</v>
+      </c>
+      <c r="C39">
+        <v>76182.75</v>
       </c>
       <c r="D39">
-        <v>87.85</v>
+        <v>9913</v>
       </c>
       <c r="E39">
-        <v>76182.75</v>
+        <v>148</v>
       </c>
       <c r="F39">
-        <v>9913</v>
+        <v>319</v>
       </c>
       <c r="G39">
-        <v>148</v>
+        <v>1.26</v>
       </c>
       <c r="H39">
-        <v>319</v>
-      </c>
-      <c r="I39">
-        <v>1.26</v>
-      </c>
-      <c r="J39">
         <v>75.13</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>142</v>
+      <c r="B40">
+        <v>444.11</v>
+      </c>
+      <c r="C40">
+        <v>67815.990000000005</v>
       </c>
       <c r="D40">
-        <v>444.11</v>
+        <v>2983</v>
       </c>
       <c r="E40">
-        <v>67815.990000000005</v>
+        <v>341</v>
       </c>
       <c r="F40">
-        <v>2983</v>
+        <v>438</v>
       </c>
       <c r="G40">
-        <v>341</v>
+        <v>1.31</v>
       </c>
       <c r="H40">
-        <v>438</v>
-      </c>
-      <c r="I40">
-        <v>1.31</v>
-      </c>
-      <c r="J40">
         <v>82.65</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>143</v>
+      <c r="B41">
+        <v>447.77</v>
+      </c>
+      <c r="C41">
+        <v>45314.54</v>
       </c>
       <c r="D41">
-        <v>447.77</v>
+        <v>8835</v>
       </c>
       <c r="E41">
-        <v>45314.54</v>
+        <v>1292</v>
       </c>
       <c r="F41">
-        <v>8835</v>
+        <v>1611</v>
       </c>
       <c r="G41">
-        <v>1292</v>
+        <v>1.51</v>
       </c>
       <c r="H41">
-        <v>1611</v>
-      </c>
-      <c r="I41">
-        <v>1.51</v>
-      </c>
-      <c r="J41">
         <v>14.99</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
+      <c r="B42">
+        <v>71.489999999999995</v>
+      </c>
+      <c r="C42">
+        <v>73404.38</v>
       </c>
       <c r="D42">
-        <v>71.489999999999995</v>
+        <v>7354</v>
       </c>
       <c r="E42">
-        <v>73404.38</v>
+        <v>3455</v>
       </c>
       <c r="F42">
-        <v>7354</v>
+        <v>194</v>
       </c>
       <c r="G42">
-        <v>3455</v>
+        <v>3.48</v>
       </c>
       <c r="H42">
-        <v>194</v>
-      </c>
-      <c r="I42">
-        <v>3.48</v>
-      </c>
-      <c r="J42">
         <v>10.46</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" t="s">
-        <v>145</v>
+      <c r="B43">
+        <v>137.87</v>
+      </c>
+      <c r="C43">
+        <v>5184.8599999999997</v>
       </c>
       <c r="D43">
-        <v>137.87</v>
+        <v>5246</v>
       </c>
       <c r="E43">
-        <v>5184.8599999999997</v>
+        <v>3241</v>
       </c>
       <c r="F43">
-        <v>5246</v>
+        <v>1538</v>
       </c>
       <c r="G43">
-        <v>3241</v>
+        <v>2.06</v>
       </c>
       <c r="H43">
-        <v>1538</v>
-      </c>
-      <c r="I43">
-        <v>2.06</v>
-      </c>
-      <c r="J43">
         <v>74.53</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
+      <c r="B44">
+        <v>122.5</v>
+      </c>
+      <c r="C44">
+        <v>12746.08</v>
       </c>
       <c r="D44">
-        <v>122.5</v>
+        <v>1871</v>
       </c>
       <c r="E44">
-        <v>12746.08</v>
+        <v>1108</v>
       </c>
       <c r="F44">
-        <v>1871</v>
+        <v>218</v>
       </c>
       <c r="G44">
-        <v>1108</v>
+        <v>2.39</v>
       </c>
       <c r="H44">
-        <v>218</v>
-      </c>
-      <c r="I44">
-        <v>2.39</v>
-      </c>
-      <c r="J44">
         <v>45.2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>147</v>
+      <c r="B45">
+        <v>136.22999999999999</v>
+      </c>
+      <c r="C45">
+        <v>77126.98</v>
       </c>
       <c r="D45">
-        <v>136.22999999999999</v>
+        <v>7717</v>
       </c>
       <c r="E45">
-        <v>77126.98</v>
+        <v>1996</v>
       </c>
       <c r="F45">
-        <v>7717</v>
+        <v>79</v>
       </c>
       <c r="G45">
-        <v>1996</v>
+        <v>1.08</v>
       </c>
       <c r="H45">
-        <v>79</v>
-      </c>
-      <c r="I45">
-        <v>1.08</v>
-      </c>
-      <c r="J45">
         <v>22.26</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>148</v>
+      <c r="B46">
+        <v>217.94</v>
+      </c>
+      <c r="C46">
+        <v>12345.32</v>
       </c>
       <c r="D46">
-        <v>217.94</v>
+        <v>9161</v>
       </c>
       <c r="E46">
-        <v>12345.32</v>
+        <v>4321</v>
       </c>
       <c r="F46">
-        <v>9161</v>
+        <v>1156</v>
       </c>
       <c r="G46">
-        <v>4321</v>
+        <v>2.9</v>
       </c>
       <c r="H46">
-        <v>1156</v>
-      </c>
-      <c r="I46">
-        <v>2.9</v>
-      </c>
-      <c r="J46">
         <v>21.7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" t="s">
-        <v>149</v>
+      <c r="B47">
+        <v>415.39</v>
+      </c>
+      <c r="C47">
+        <v>87391.25</v>
       </c>
       <c r="D47">
-        <v>415.39</v>
+        <v>9527</v>
       </c>
       <c r="E47">
-        <v>87391.25</v>
+        <v>1713</v>
       </c>
       <c r="F47">
-        <v>9527</v>
+        <v>1552</v>
       </c>
       <c r="G47">
-        <v>1713</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H47">
-        <v>1552</v>
-      </c>
-      <c r="I47">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J47">
         <v>15.39</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>150</v>
+      <c r="B48">
+        <v>243.46</v>
+      </c>
+      <c r="C48">
+        <v>94618.68</v>
       </c>
       <c r="D48">
-        <v>243.46</v>
+        <v>1382</v>
       </c>
       <c r="E48">
-        <v>94618.68</v>
+        <v>354</v>
       </c>
       <c r="F48">
-        <v>1382</v>
+        <v>1136</v>
       </c>
       <c r="G48">
-        <v>354</v>
+        <v>3.22</v>
       </c>
       <c r="H48">
-        <v>1136</v>
-      </c>
-      <c r="I48">
-        <v>3.22</v>
-      </c>
-      <c r="J48">
         <v>80.209999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C49" t="s">
-        <v>151</v>
+      <c r="B49">
+        <v>371.91</v>
+      </c>
+      <c r="C49">
+        <v>40869.980000000003</v>
       </c>
       <c r="D49">
-        <v>371.91</v>
+        <v>7116</v>
       </c>
       <c r="E49">
-        <v>40869.980000000003</v>
+        <v>2946</v>
       </c>
       <c r="F49">
-        <v>7116</v>
+        <v>1037</v>
       </c>
       <c r="G49">
-        <v>2946</v>
+        <v>4.41</v>
       </c>
       <c r="H49">
-        <v>1037</v>
-      </c>
-      <c r="I49">
-        <v>4.41</v>
-      </c>
-      <c r="J49">
         <v>32.06</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
+      <c r="B50">
+        <v>403.13</v>
+      </c>
+      <c r="C50">
+        <v>50203.96</v>
       </c>
       <c r="D50">
-        <v>403.13</v>
+        <v>3049</v>
       </c>
       <c r="E50">
-        <v>50203.96</v>
+        <v>2993</v>
       </c>
       <c r="F50">
-        <v>3049</v>
+        <v>1125</v>
       </c>
       <c r="G50">
-        <v>2993</v>
+        <v>2.46</v>
       </c>
       <c r="H50">
-        <v>1125</v>
-      </c>
-      <c r="I50">
-        <v>2.46</v>
-      </c>
-      <c r="J50">
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>153</v>
+      <c r="B51">
+        <v>470.64</v>
+      </c>
+      <c r="C51">
+        <v>10994.19</v>
       </c>
       <c r="D51">
-        <v>470.64</v>
+        <v>486</v>
       </c>
       <c r="E51">
-        <v>10994.19</v>
+        <v>2710</v>
       </c>
       <c r="F51">
-        <v>486</v>
+        <v>1730</v>
       </c>
       <c r="G51">
-        <v>2710</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H51">
-        <v>1730</v>
-      </c>
-      <c r="I51">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J51">
         <v>25.84</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>154</v>
+      <c r="B52">
+        <v>152.80000000000001</v>
+      </c>
+      <c r="C52">
+        <v>2292.59</v>
       </c>
       <c r="D52">
-        <v>152.80000000000001</v>
+        <v>5570</v>
       </c>
       <c r="E52">
-        <v>2292.59</v>
+        <v>3958</v>
       </c>
       <c r="F52">
-        <v>5570</v>
+        <v>1204</v>
       </c>
       <c r="G52">
-        <v>3958</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H52">
-        <v>1204</v>
-      </c>
-      <c r="I52">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="J52">
         <v>20.62</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
-        <v>155</v>
+      <c r="B53">
+        <v>122.61</v>
+      </c>
+      <c r="C53">
+        <v>85428.57</v>
       </c>
       <c r="D53">
-        <v>122.61</v>
+        <v>4033</v>
       </c>
       <c r="E53">
-        <v>85428.57</v>
+        <v>3471</v>
       </c>
       <c r="F53">
-        <v>4033</v>
+        <v>1354</v>
       </c>
       <c r="G53">
-        <v>3471</v>
+        <v>1.41</v>
       </c>
       <c r="H53">
-        <v>1354</v>
-      </c>
-      <c r="I53">
-        <v>1.41</v>
-      </c>
-      <c r="J53">
         <v>56.44</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
+      <c r="B54">
+        <v>193.95</v>
+      </c>
+      <c r="C54">
+        <v>29170.560000000001</v>
       </c>
       <c r="D54">
-        <v>193.95</v>
+        <v>7598</v>
       </c>
       <c r="E54">
-        <v>29170.560000000001</v>
+        <v>1235</v>
       </c>
       <c r="F54">
-        <v>7598</v>
+        <v>429</v>
       </c>
       <c r="G54">
-        <v>1235</v>
+        <v>4.28</v>
       </c>
       <c r="H54">
-        <v>429</v>
-      </c>
-      <c r="I54">
-        <v>4.28</v>
-      </c>
-      <c r="J54">
         <v>65.349999999999994</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>157</v>
+      <c r="B55">
+        <v>388.48</v>
+      </c>
+      <c r="C55">
+        <v>15650.64</v>
       </c>
       <c r="D55">
-        <v>388.48</v>
+        <v>3390</v>
       </c>
       <c r="E55">
-        <v>15650.64</v>
+        <v>2890</v>
       </c>
       <c r="F55">
-        <v>3390</v>
+        <v>476</v>
       </c>
       <c r="G55">
-        <v>2890</v>
+        <v>3.48</v>
       </c>
       <c r="H55">
-        <v>476</v>
-      </c>
-      <c r="I55">
-        <v>3.48</v>
-      </c>
-      <c r="J55">
         <v>17.02</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" t="s">
-        <v>158</v>
+      <c r="B56">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="C56">
+        <v>73818.320000000007</v>
       </c>
       <c r="D56">
-        <v>280.10000000000002</v>
+        <v>6394</v>
       </c>
       <c r="E56">
-        <v>73818.320000000007</v>
+        <v>1528</v>
       </c>
       <c r="F56">
-        <v>6394</v>
+        <v>1715</v>
       </c>
       <c r="G56">
-        <v>1528</v>
+        <v>3.73</v>
       </c>
       <c r="H56">
-        <v>1715</v>
-      </c>
-      <c r="I56">
-        <v>3.73</v>
-      </c>
-      <c r="J56">
         <v>68.739999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" t="s">
-        <v>159</v>
+      <c r="B57">
+        <v>405.07</v>
+      </c>
+      <c r="C57">
+        <v>64736.12</v>
       </c>
       <c r="D57">
-        <v>405.07</v>
+        <v>5335</v>
       </c>
       <c r="E57">
-        <v>64736.12</v>
+        <v>1716</v>
       </c>
       <c r="F57">
-        <v>5335</v>
+        <v>88</v>
       </c>
       <c r="G57">
-        <v>1716</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H57">
-        <v>88</v>
-      </c>
-      <c r="I57">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="J57">
         <v>75.28</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" t="s">
-        <v>160</v>
+      <c r="B58">
+        <v>284.63</v>
+      </c>
+      <c r="C58">
+        <v>17409.59</v>
       </c>
       <c r="D58">
-        <v>284.63</v>
+        <v>5182</v>
       </c>
       <c r="E58">
-        <v>17409.59</v>
+        <v>4441</v>
       </c>
       <c r="F58">
-        <v>5182</v>
+        <v>857</v>
       </c>
       <c r="G58">
-        <v>4441</v>
+        <v>1.26</v>
       </c>
       <c r="H58">
-        <v>857</v>
-      </c>
-      <c r="I58">
-        <v>1.26</v>
-      </c>
-      <c r="J58">
         <v>90.67</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" t="s">
-        <v>161</v>
+      <c r="B59">
+        <v>217.47</v>
+      </c>
+      <c r="C59">
+        <v>98356.83</v>
       </c>
       <c r="D59">
-        <v>217.47</v>
+        <v>9541</v>
       </c>
       <c r="E59">
-        <v>98356.83</v>
+        <v>2513</v>
       </c>
       <c r="F59">
-        <v>9541</v>
+        <v>1383</v>
       </c>
       <c r="G59">
-        <v>2513</v>
+        <v>4.04</v>
       </c>
       <c r="H59">
-        <v>1383</v>
-      </c>
-      <c r="I59">
-        <v>4.04</v>
-      </c>
-      <c r="J59">
         <v>28.95</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" t="s">
-        <v>162</v>
+      <c r="B60">
+        <v>214.81</v>
+      </c>
+      <c r="C60">
+        <v>44335.47</v>
       </c>
       <c r="D60">
-        <v>214.81</v>
+        <v>7697</v>
       </c>
       <c r="E60">
-        <v>44335.47</v>
+        <v>478</v>
       </c>
       <c r="F60">
-        <v>7697</v>
+        <v>1976</v>
       </c>
       <c r="G60">
-        <v>478</v>
+        <v>3.96</v>
       </c>
       <c r="H60">
-        <v>1976</v>
-      </c>
-      <c r="I60">
-        <v>3.96</v>
-      </c>
-      <c r="J60">
         <v>67.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" t="s">
-        <v>163</v>
+      <c r="B61">
+        <v>355.24</v>
+      </c>
+      <c r="C61">
+        <v>13783.83</v>
       </c>
       <c r="D61">
-        <v>355.24</v>
+        <v>4580</v>
       </c>
       <c r="E61">
-        <v>13783.83</v>
+        <v>1989</v>
       </c>
       <c r="F61">
-        <v>4580</v>
+        <v>1672</v>
       </c>
       <c r="G61">
-        <v>1989</v>
+        <v>1.96</v>
       </c>
       <c r="H61">
-        <v>1672</v>
-      </c>
-      <c r="I61">
-        <v>1.96</v>
-      </c>
-      <c r="J61">
         <v>12.97</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" t="s">
-        <v>164</v>
+      <c r="B62">
+        <v>380.93</v>
+      </c>
+      <c r="C62">
+        <v>93574.19</v>
       </c>
       <c r="D62">
-        <v>380.93</v>
+        <v>343</v>
       </c>
       <c r="E62">
-        <v>93574.19</v>
+        <v>4527</v>
       </c>
       <c r="F62">
-        <v>343</v>
+        <v>1535</v>
       </c>
       <c r="G62">
-        <v>4527</v>
+        <v>3.12</v>
       </c>
       <c r="H62">
-        <v>1535</v>
-      </c>
-      <c r="I62">
-        <v>3.12</v>
-      </c>
-      <c r="J62">
         <v>45.06</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" t="s">
-        <v>165</v>
+      <c r="B63">
+        <v>76.78</v>
+      </c>
+      <c r="C63">
+        <v>27534.18</v>
       </c>
       <c r="D63">
-        <v>76.78</v>
+        <v>3381</v>
       </c>
       <c r="E63">
-        <v>27534.18</v>
+        <v>2691</v>
       </c>
       <c r="F63">
-        <v>3381</v>
+        <v>782</v>
       </c>
       <c r="G63">
-        <v>2691</v>
+        <v>4.8</v>
       </c>
       <c r="H63">
-        <v>782</v>
-      </c>
-      <c r="I63">
-        <v>4.8</v>
-      </c>
-      <c r="J63">
         <v>18.07</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>166</v>
+      <c r="B64">
+        <v>312.74</v>
+      </c>
+      <c r="C64">
+        <v>29610.46</v>
       </c>
       <c r="D64">
-        <v>312.74</v>
+        <v>2083</v>
       </c>
       <c r="E64">
-        <v>29610.46</v>
+        <v>1757</v>
       </c>
       <c r="F64">
-        <v>2083</v>
+        <v>88</v>
       </c>
       <c r="G64">
-        <v>1757</v>
+        <v>4.67</v>
       </c>
       <c r="H64">
-        <v>88</v>
-      </c>
-      <c r="I64">
-        <v>4.67</v>
-      </c>
-      <c r="J64">
         <v>69.2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>102</v>
-      </c>
-      <c r="C65" t="s">
-        <v>167</v>
+      <c r="B65">
+        <v>382.64</v>
+      </c>
+      <c r="C65">
+        <v>53458.8</v>
       </c>
       <c r="D65">
-        <v>382.64</v>
+        <v>8261</v>
       </c>
       <c r="E65">
-        <v>53458.8</v>
+        <v>4534</v>
       </c>
       <c r="F65">
-        <v>8261</v>
+        <v>663</v>
       </c>
       <c r="G65">
-        <v>4534</v>
+        <v>3.57</v>
       </c>
       <c r="H65">
-        <v>663</v>
-      </c>
-      <c r="I65">
-        <v>3.57</v>
-      </c>
-      <c r="J65">
         <v>89.6</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" t="s">
-        <v>168</v>
+      <c r="B66">
+        <v>216.95</v>
+      </c>
+      <c r="C66">
+        <v>98588.53</v>
       </c>
       <c r="D66">
-        <v>216.95</v>
+        <v>4826</v>
       </c>
       <c r="E66">
-        <v>98588.53</v>
+        <v>2680</v>
       </c>
       <c r="F66">
-        <v>4826</v>
+        <v>38</v>
       </c>
       <c r="G66">
-        <v>2680</v>
+        <v>3.39</v>
       </c>
       <c r="H66">
-        <v>38</v>
-      </c>
-      <c r="I66">
-        <v>3.39</v>
-      </c>
-      <c r="J66">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>102</v>
-      </c>
-      <c r="C67" t="s">
-        <v>169</v>
+      <c r="B67">
+        <v>361.4</v>
+      </c>
+      <c r="C67">
+        <v>3736.89</v>
       </c>
       <c r="D67">
-        <v>361.4</v>
+        <v>8434</v>
       </c>
       <c r="E67">
-        <v>3736.89</v>
+        <v>3284</v>
       </c>
       <c r="F67">
-        <v>8434</v>
+        <v>907</v>
       </c>
       <c r="G67">
-        <v>3284</v>
+        <v>1.99</v>
       </c>
       <c r="H67">
-        <v>907</v>
-      </c>
-      <c r="I67">
-        <v>1.99</v>
-      </c>
-      <c r="J67">
         <v>97.66</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>170</v>
+      <c r="B68">
+        <v>87.26</v>
+      </c>
+      <c r="C68">
+        <v>42049.36</v>
       </c>
       <c r="D68">
-        <v>87.26</v>
+        <v>2502</v>
       </c>
       <c r="E68">
-        <v>42049.36</v>
+        <v>3880</v>
       </c>
       <c r="F68">
-        <v>2502</v>
+        <v>1591</v>
       </c>
       <c r="G68">
-        <v>3880</v>
+        <v>4.76</v>
       </c>
       <c r="H68">
-        <v>1591</v>
-      </c>
-      <c r="I68">
-        <v>4.76</v>
-      </c>
-      <c r="J68">
         <v>68.06</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" t="s">
-        <v>171</v>
+      <c r="B69">
+        <v>382.58</v>
+      </c>
+      <c r="C69">
+        <v>80447.199999999997</v>
       </c>
       <c r="D69">
-        <v>382.58</v>
+        <v>2871</v>
       </c>
       <c r="E69">
-        <v>80447.199999999997</v>
+        <v>1647</v>
       </c>
       <c r="F69">
-        <v>2871</v>
+        <v>1015</v>
       </c>
       <c r="G69">
-        <v>1647</v>
+        <v>2.1</v>
       </c>
       <c r="H69">
-        <v>1015</v>
-      </c>
-      <c r="I69">
-        <v>2.1</v>
-      </c>
-      <c r="J69">
         <v>16.05</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>102</v>
-      </c>
-      <c r="C70" t="s">
-        <v>172</v>
+      <c r="B70">
+        <v>89.52</v>
+      </c>
+      <c r="C70">
+        <v>23758.95</v>
       </c>
       <c r="D70">
-        <v>89.52</v>
+        <v>1675</v>
       </c>
       <c r="E70">
-        <v>23758.95</v>
+        <v>3964</v>
       </c>
       <c r="F70">
-        <v>1675</v>
+        <v>601</v>
       </c>
       <c r="G70">
-        <v>3964</v>
+        <v>1.4</v>
       </c>
       <c r="H70">
-        <v>601</v>
-      </c>
-      <c r="I70">
-        <v>1.4</v>
-      </c>
-      <c r="J70">
         <v>40.07</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" t="s">
-        <v>173</v>
+      <c r="B71">
+        <v>445.36</v>
+      </c>
+      <c r="C71">
+        <v>17813.43</v>
       </c>
       <c r="D71">
-        <v>445.36</v>
+        <v>84</v>
       </c>
       <c r="E71">
-        <v>17813.43</v>
+        <v>2711</v>
       </c>
       <c r="F71">
-        <v>84</v>
+        <v>430</v>
       </c>
       <c r="G71">
-        <v>2711</v>
+        <v>3.03</v>
       </c>
       <c r="H71">
-        <v>430</v>
-      </c>
-      <c r="I71">
-        <v>3.03</v>
-      </c>
-      <c r="J71">
         <v>29.35</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" t="s">
-        <v>151</v>
+      <c r="B72">
+        <v>78.760000000000005</v>
+      </c>
+      <c r="C72">
+        <v>16603.89</v>
       </c>
       <c r="D72">
-        <v>78.760000000000005</v>
+        <v>6408</v>
       </c>
       <c r="E72">
-        <v>16603.89</v>
+        <v>4573</v>
       </c>
       <c r="F72">
-        <v>6408</v>
+        <v>1630</v>
       </c>
       <c r="G72">
-        <v>4573</v>
+        <v>2.72</v>
       </c>
       <c r="H72">
-        <v>1630</v>
-      </c>
-      <c r="I72">
-        <v>2.72</v>
-      </c>
-      <c r="J72">
         <v>59.04</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" t="s">
-        <v>174</v>
+      <c r="B73">
+        <v>465.03</v>
+      </c>
+      <c r="C73">
+        <v>79665.759999999995</v>
       </c>
       <c r="D73">
-        <v>465.03</v>
+        <v>5378</v>
       </c>
       <c r="E73">
-        <v>79665.759999999995</v>
+        <v>4929</v>
       </c>
       <c r="F73">
-        <v>5378</v>
+        <v>210</v>
       </c>
       <c r="G73">
-        <v>4929</v>
+        <v>1.86</v>
       </c>
       <c r="H73">
-        <v>210</v>
-      </c>
-      <c r="I73">
-        <v>1.86</v>
-      </c>
-      <c r="J73">
         <v>84.02</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" t="s">
-        <v>175</v>
+      <c r="B74">
+        <v>112.48</v>
+      </c>
+      <c r="C74">
+        <v>34351.629999999997</v>
       </c>
       <c r="D74">
-        <v>112.48</v>
+        <v>4544</v>
       </c>
       <c r="E74">
-        <v>34351.629999999997</v>
+        <v>3493</v>
       </c>
       <c r="F74">
-        <v>4544</v>
+        <v>1806</v>
       </c>
       <c r="G74">
-        <v>3493</v>
+        <v>2.98</v>
       </c>
       <c r="H74">
-        <v>1806</v>
-      </c>
-      <c r="I74">
-        <v>2.98</v>
-      </c>
-      <c r="J74">
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" t="s">
-        <v>126</v>
+      <c r="B75">
+        <v>358.17</v>
+      </c>
+      <c r="C75">
+        <v>57874.62</v>
       </c>
       <c r="D75">
-        <v>358.17</v>
+        <v>854</v>
       </c>
       <c r="E75">
-        <v>57874.62</v>
+        <v>909</v>
       </c>
       <c r="F75">
-        <v>854</v>
+        <v>1974</v>
       </c>
       <c r="G75">
-        <v>909</v>
+        <v>4.21</v>
       </c>
       <c r="H75">
-        <v>1974</v>
-      </c>
-      <c r="I75">
-        <v>4.21</v>
-      </c>
-      <c r="J75">
         <v>96.78</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" t="s">
-        <v>176</v>
+      <c r="B76">
+        <v>412.39</v>
+      </c>
+      <c r="C76">
+        <v>57537.19</v>
       </c>
       <c r="D76">
-        <v>412.39</v>
+        <v>8041</v>
       </c>
       <c r="E76">
-        <v>57537.19</v>
+        <v>2220</v>
       </c>
       <c r="F76">
-        <v>8041</v>
+        <v>1114</v>
       </c>
       <c r="G76">
-        <v>2220</v>
+        <v>4.37</v>
       </c>
       <c r="H76">
-        <v>1114</v>
-      </c>
-      <c r="I76">
-        <v>4.37</v>
-      </c>
-      <c r="J76">
         <v>91.21</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" t="s">
-        <v>177</v>
+      <c r="B77">
+        <v>496.99</v>
+      </c>
+      <c r="C77">
+        <v>78522.25</v>
       </c>
       <c r="D77">
-        <v>496.99</v>
+        <v>8125</v>
       </c>
       <c r="E77">
-        <v>78522.25</v>
+        <v>3982</v>
       </c>
       <c r="F77">
-        <v>8125</v>
+        <v>979</v>
       </c>
       <c r="G77">
-        <v>3982</v>
+        <v>3.3</v>
       </c>
       <c r="H77">
-        <v>979</v>
-      </c>
-      <c r="I77">
-        <v>3.3</v>
-      </c>
-      <c r="J77">
         <v>10.039999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>101</v>
-      </c>
-      <c r="C78" t="s">
-        <v>178</v>
+      <c r="B78">
+        <v>185.06</v>
+      </c>
+      <c r="C78">
+        <v>7108.68</v>
       </c>
       <c r="D78">
-        <v>185.06</v>
+        <v>6955</v>
       </c>
       <c r="E78">
-        <v>7108.68</v>
+        <v>2085</v>
       </c>
       <c r="F78">
-        <v>6955</v>
+        <v>1593</v>
       </c>
       <c r="G78">
-        <v>2085</v>
+        <v>2.92</v>
       </c>
       <c r="H78">
-        <v>1593</v>
-      </c>
-      <c r="I78">
-        <v>2.92</v>
-      </c>
-      <c r="J78">
         <v>28.91</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" t="s">
-        <v>179</v>
+      <c r="B79">
+        <v>157.97</v>
+      </c>
+      <c r="C79">
+        <v>71305.23</v>
       </c>
       <c r="D79">
-        <v>157.97</v>
+        <v>2660</v>
       </c>
       <c r="E79">
-        <v>71305.23</v>
+        <v>3575</v>
       </c>
       <c r="F79">
-        <v>2660</v>
+        <v>194</v>
       </c>
       <c r="G79">
-        <v>3575</v>
+        <v>1.65</v>
       </c>
       <c r="H79">
-        <v>194</v>
-      </c>
-      <c r="I79">
-        <v>1.65</v>
-      </c>
-      <c r="J79">
         <v>22.44</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>101</v>
-      </c>
-      <c r="C80" t="s">
-        <v>180</v>
+      <c r="B80">
+        <v>447.52</v>
+      </c>
+      <c r="C80">
+        <v>68801.98</v>
       </c>
       <c r="D80">
-        <v>447.52</v>
+        <v>2495</v>
       </c>
       <c r="E80">
-        <v>68801.98</v>
+        <v>1672</v>
       </c>
       <c r="F80">
-        <v>2495</v>
+        <v>1582</v>
       </c>
       <c r="G80">
-        <v>1672</v>
+        <v>1.34</v>
       </c>
       <c r="H80">
-        <v>1582</v>
-      </c>
-      <c r="I80">
-        <v>1.34</v>
-      </c>
-      <c r="J80">
         <v>92.69</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>102</v>
-      </c>
-      <c r="C81" t="s">
-        <v>181</v>
+      <c r="B81">
+        <v>320.08</v>
+      </c>
+      <c r="C81">
+        <v>85285.87</v>
       </c>
       <c r="D81">
-        <v>320.08</v>
+        <v>5380</v>
       </c>
       <c r="E81">
-        <v>85285.87</v>
+        <v>4970</v>
       </c>
       <c r="F81">
-        <v>5380</v>
+        <v>1698</v>
       </c>
       <c r="G81">
-        <v>4970</v>
+        <v>2.58</v>
       </c>
       <c r="H81">
-        <v>1698</v>
-      </c>
-      <c r="I81">
-        <v>2.58</v>
-      </c>
-      <c r="J81">
         <v>9.27</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
+      <c r="B82">
+        <v>345.57</v>
+      </c>
+      <c r="C82">
+        <v>63408.52</v>
       </c>
       <c r="D82">
-        <v>345.57</v>
+        <v>1087</v>
       </c>
       <c r="E82">
-        <v>63408.52</v>
+        <v>440</v>
       </c>
       <c r="F82">
-        <v>1087</v>
+        <v>1252</v>
       </c>
       <c r="G82">
-        <v>440</v>
+        <v>3.6</v>
       </c>
       <c r="H82">
-        <v>1252</v>
-      </c>
-      <c r="I82">
-        <v>3.6</v>
-      </c>
-      <c r="J82">
         <v>31.72</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>102</v>
-      </c>
-      <c r="C83" t="s">
-        <v>183</v>
+      <c r="B83">
+        <v>75.39</v>
+      </c>
+      <c r="C83">
+        <v>34395.72</v>
       </c>
       <c r="D83">
-        <v>75.39</v>
+        <v>5774</v>
       </c>
       <c r="E83">
-        <v>34395.72</v>
+        <v>1959</v>
       </c>
       <c r="F83">
-        <v>5774</v>
+        <v>192</v>
       </c>
       <c r="G83">
-        <v>1959</v>
+        <v>2.29</v>
       </c>
       <c r="H83">
-        <v>192</v>
-      </c>
-      <c r="I83">
-        <v>2.29</v>
-      </c>
-      <c r="J83">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>103</v>
-      </c>
-      <c r="C84" t="s">
-        <v>179</v>
+      <c r="B84">
+        <v>442.04</v>
+      </c>
+      <c r="C84">
+        <v>9850.7199999999993</v>
       </c>
       <c r="D84">
-        <v>442.04</v>
+        <v>6003</v>
       </c>
       <c r="E84">
-        <v>9850.7199999999993</v>
+        <v>3942</v>
       </c>
       <c r="F84">
-        <v>6003</v>
+        <v>377</v>
       </c>
       <c r="G84">
-        <v>3942</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H84">
-        <v>377</v>
-      </c>
-      <c r="I84">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J84">
         <v>52.22</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>101</v>
-      </c>
-      <c r="C85" t="s">
-        <v>184</v>
+      <c r="B85">
+        <v>263.72000000000003</v>
+      </c>
+      <c r="C85">
+        <v>35623.15</v>
       </c>
       <c r="D85">
-        <v>263.72000000000003</v>
+        <v>3922</v>
       </c>
       <c r="E85">
-        <v>35623.15</v>
+        <v>2940</v>
       </c>
       <c r="F85">
-        <v>3922</v>
+        <v>266</v>
       </c>
       <c r="G85">
-        <v>2940</v>
+        <v>1.59</v>
       </c>
       <c r="H85">
-        <v>266</v>
-      </c>
-      <c r="I85">
-        <v>1.59</v>
-      </c>
-      <c r="J85">
         <v>74.8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" t="s">
-        <v>185</v>
+      <c r="B86">
+        <v>237.09</v>
+      </c>
+      <c r="C86">
+        <v>4727.46</v>
       </c>
       <c r="D86">
-        <v>237.09</v>
+        <v>3912</v>
       </c>
       <c r="E86">
-        <v>4727.46</v>
+        <v>4450</v>
       </c>
       <c r="F86">
-        <v>3912</v>
+        <v>842</v>
       </c>
       <c r="G86">
-        <v>4450</v>
+        <v>2.91</v>
       </c>
       <c r="H86">
-        <v>842</v>
-      </c>
-      <c r="I86">
-        <v>2.91</v>
-      </c>
-      <c r="J86">
         <v>58.55</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>102</v>
-      </c>
-      <c r="C87" t="s">
-        <v>186</v>
+      <c r="B87">
+        <v>299.57</v>
+      </c>
+      <c r="C87">
+        <v>32382.16</v>
       </c>
       <c r="D87">
-        <v>299.57</v>
+        <v>843</v>
       </c>
       <c r="E87">
-        <v>32382.16</v>
+        <v>1265</v>
       </c>
       <c r="F87">
-        <v>843</v>
+        <v>1192</v>
       </c>
       <c r="G87">
-        <v>1265</v>
+        <v>3.44</v>
       </c>
       <c r="H87">
-        <v>1192</v>
-      </c>
-      <c r="I87">
-        <v>3.44</v>
-      </c>
-      <c r="J87">
         <v>97.85</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>103</v>
-      </c>
-      <c r="C88" t="s">
-        <v>187</v>
+      <c r="B88">
+        <v>114.16</v>
+      </c>
+      <c r="C88">
+        <v>51003.15</v>
       </c>
       <c r="D88">
-        <v>114.16</v>
+        <v>4297</v>
       </c>
       <c r="E88">
-        <v>51003.15</v>
+        <v>1732</v>
       </c>
       <c r="F88">
-        <v>4297</v>
+        <v>1335</v>
       </c>
       <c r="G88">
-        <v>1732</v>
+        <v>3.33</v>
       </c>
       <c r="H88">
-        <v>1335</v>
-      </c>
-      <c r="I88">
-        <v>3.33</v>
-      </c>
-      <c r="J88">
         <v>16.88</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>101</v>
-      </c>
-      <c r="C89" t="s">
-        <v>188</v>
+      <c r="B89">
+        <v>116.28</v>
+      </c>
+      <c r="C89">
+        <v>79089.84</v>
       </c>
       <c r="D89">
-        <v>116.28</v>
+        <v>3214</v>
       </c>
       <c r="E89">
-        <v>79089.84</v>
+        <v>4728</v>
       </c>
       <c r="F89">
-        <v>3214</v>
+        <v>387</v>
       </c>
       <c r="G89">
-        <v>4728</v>
+        <v>4.59</v>
       </c>
       <c r="H89">
-        <v>387</v>
-      </c>
-      <c r="I89">
-        <v>4.59</v>
-      </c>
-      <c r="J89">
         <v>28.82</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" t="s">
-        <v>189</v>
+      <c r="B90">
+        <v>255.03</v>
+      </c>
+      <c r="C90">
+        <v>91842.85</v>
       </c>
       <c r="D90">
-        <v>255.03</v>
+        <v>2028</v>
       </c>
       <c r="E90">
-        <v>91842.85</v>
+        <v>3527</v>
       </c>
       <c r="F90">
-        <v>2028</v>
+        <v>193</v>
       </c>
       <c r="G90">
-        <v>3527</v>
+        <v>1.71</v>
       </c>
       <c r="H90">
-        <v>193</v>
-      </c>
-      <c r="I90">
-        <v>1.71</v>
-      </c>
-      <c r="J90">
         <v>90.07</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>103</v>
-      </c>
-      <c r="C91" t="s">
-        <v>190</v>
+      <c r="B91">
+        <v>216.09</v>
+      </c>
+      <c r="C91">
+        <v>12164.9</v>
       </c>
       <c r="D91">
-        <v>216.09</v>
+        <v>4334</v>
       </c>
       <c r="E91">
-        <v>12164.9</v>
+        <v>4504</v>
       </c>
       <c r="F91">
-        <v>4334</v>
+        <v>1034</v>
       </c>
       <c r="G91">
-        <v>4504</v>
+        <v>4.01</v>
       </c>
       <c r="H91">
-        <v>1034</v>
-      </c>
-      <c r="I91">
-        <v>4.01</v>
-      </c>
-      <c r="J91">
         <v>38.61</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
-        <v>191</v>
+      <c r="B92">
+        <v>241.76</v>
+      </c>
+      <c r="C92">
+        <v>14018.04</v>
       </c>
       <c r="D92">
-        <v>241.76</v>
+        <v>710</v>
       </c>
       <c r="E92">
-        <v>14018.04</v>
+        <v>3159</v>
       </c>
       <c r="F92">
-        <v>710</v>
+        <v>1132</v>
       </c>
       <c r="G92">
-        <v>3159</v>
+        <v>1.41</v>
       </c>
       <c r="H92">
-        <v>1132</v>
-      </c>
-      <c r="I92">
-        <v>1.41</v>
-      </c>
-      <c r="J92">
         <v>70.56</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93" t="s">
-        <v>192</v>
+      <c r="B93">
+        <v>185.29</v>
+      </c>
+      <c r="C93">
+        <v>69036.78</v>
       </c>
       <c r="D93">
-        <v>185.29</v>
+        <v>8294</v>
       </c>
       <c r="E93">
-        <v>69036.78</v>
+        <v>2541</v>
       </c>
       <c r="F93">
-        <v>8294</v>
+        <v>1611</v>
       </c>
       <c r="G93">
-        <v>2541</v>
+        <v>1.3</v>
       </c>
       <c r="H93">
-        <v>1611</v>
-      </c>
-      <c r="I93">
-        <v>1.3</v>
-      </c>
-      <c r="J93">
         <v>67.72</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" t="s">
-        <v>193</v>
+      <c r="B94">
+        <v>101.39</v>
+      </c>
+      <c r="C94">
+        <v>93544.72</v>
       </c>
       <c r="D94">
-        <v>101.39</v>
+        <v>3769</v>
       </c>
       <c r="E94">
-        <v>93544.72</v>
+        <v>1513</v>
       </c>
       <c r="F94">
-        <v>3769</v>
+        <v>1724</v>
       </c>
       <c r="G94">
-        <v>1513</v>
+        <v>4.84</v>
       </c>
       <c r="H94">
-        <v>1724</v>
-      </c>
-      <c r="I94">
-        <v>4.84</v>
-      </c>
-      <c r="J94">
         <v>16.22</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" t="s">
-        <v>194</v>
+      <c r="B95">
+        <v>215.21</v>
+      </c>
+      <c r="C95">
+        <v>5314.01</v>
       </c>
       <c r="D95">
-        <v>215.21</v>
+        <v>5064</v>
       </c>
       <c r="E95">
-        <v>5314.01</v>
+        <v>4454</v>
       </c>
       <c r="F95">
-        <v>5064</v>
+        <v>1246</v>
       </c>
       <c r="G95">
-        <v>4454</v>
+        <v>2.04</v>
       </c>
       <c r="H95">
-        <v>1246</v>
-      </c>
-      <c r="I95">
-        <v>2.04</v>
-      </c>
-      <c r="J95">
         <v>37.56</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>101</v>
-      </c>
-      <c r="C96" t="s">
-        <v>195</v>
+      <c r="B96">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="C96">
+        <v>75230.13</v>
       </c>
       <c r="D96">
-        <v>67.650000000000006</v>
+        <v>3736</v>
       </c>
       <c r="E96">
-        <v>75230.13</v>
+        <v>654</v>
       </c>
       <c r="F96">
-        <v>3736</v>
+        <v>1791</v>
       </c>
       <c r="G96">
-        <v>654</v>
+        <v>2.65</v>
       </c>
       <c r="H96">
-        <v>1791</v>
-      </c>
-      <c r="I96">
-        <v>2.65</v>
-      </c>
-      <c r="J96">
         <v>77.56</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>196</v>
+      <c r="B97">
+        <v>329.43</v>
+      </c>
+      <c r="C97">
+        <v>18235.43</v>
       </c>
       <c r="D97">
-        <v>329.43</v>
+        <v>9045</v>
       </c>
       <c r="E97">
-        <v>18235.43</v>
+        <v>4642</v>
       </c>
       <c r="F97">
-        <v>9045</v>
+        <v>659</v>
       </c>
       <c r="G97">
-        <v>4642</v>
+        <v>3.66</v>
       </c>
       <c r="H97">
-        <v>659</v>
-      </c>
-      <c r="I97">
-        <v>3.66</v>
-      </c>
-      <c r="J97">
         <v>95.04</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>103</v>
-      </c>
-      <c r="C98" t="s">
-        <v>197</v>
+      <c r="B98">
+        <v>103.96</v>
+      </c>
+      <c r="C98">
+        <v>59276.28</v>
       </c>
       <c r="D98">
-        <v>103.96</v>
+        <v>9060</v>
       </c>
       <c r="E98">
-        <v>59276.28</v>
+        <v>4140</v>
       </c>
       <c r="F98">
-        <v>9060</v>
+        <v>1733</v>
       </c>
       <c r="G98">
-        <v>4140</v>
+        <v>3.62</v>
       </c>
       <c r="H98">
-        <v>1733</v>
-      </c>
-      <c r="I98">
-        <v>3.62</v>
-      </c>
-      <c r="J98">
         <v>73.709999999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
+      <c r="B99">
+        <v>269.25</v>
+      </c>
+      <c r="C99">
+        <v>75283.600000000006</v>
       </c>
       <c r="D99">
-        <v>269.25</v>
+        <v>6733</v>
       </c>
       <c r="E99">
-        <v>75283.600000000006</v>
+        <v>2525</v>
       </c>
       <c r="F99">
-        <v>6733</v>
+        <v>1525</v>
       </c>
       <c r="G99">
-        <v>2525</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>1525</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
         <v>5.86</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" t="s">
-        <v>199</v>
+      <c r="B100">
+        <v>471.44</v>
+      </c>
+      <c r="C100">
+        <v>85246.07</v>
       </c>
       <c r="D100">
-        <v>471.44</v>
+        <v>7172</v>
       </c>
       <c r="E100">
-        <v>85246.07</v>
+        <v>3376</v>
       </c>
       <c r="F100">
-        <v>7172</v>
+        <v>832</v>
       </c>
       <c r="G100">
-        <v>3376</v>
+        <v>4.74</v>
       </c>
       <c r="H100">
-        <v>832</v>
-      </c>
-      <c r="I100">
-        <v>4.74</v>
-      </c>
-      <c r="J100">
         <v>20.63</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" t="s">
-        <v>200</v>
+      <c r="B101">
+        <v>356.39</v>
+      </c>
+      <c r="C101">
+        <v>95917.35</v>
       </c>
       <c r="D101">
-        <v>356.39</v>
+        <v>3156</v>
       </c>
       <c r="E101">
-        <v>95917.35</v>
+        <v>3369</v>
       </c>
       <c r="F101">
-        <v>3156</v>
+        <v>212</v>
       </c>
       <c r="G101">
-        <v>3369</v>
+        <v>3.39</v>
       </c>
       <c r="H101">
-        <v>212</v>
-      </c>
-      <c r="I101">
-        <v>3.39</v>
-      </c>
-      <c r="J101">
         <v>44.45</v>
       </c>
     </row>
